--- a/biology/Botanique/Phoma_eupyrena/Phoma_eupyrena.xlsx
+++ b/biology/Botanique/Phoma_eupyrena/Phoma_eupyrena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phoma eupyrena est une espèce de champignons ascomycètes phytopathogènes.
 Ce champignon est l'un des agents responsables de la gangrène de la pomme de terre, forme de pourriture sèche qui affecte les tubercules en conservation.
